--- a/Marks/assign3.xlsx
+++ b/Marks/assign3.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Desktop\Markings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19140" windowHeight="8730"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="16900" windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -242,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,20 +489,20 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
@@ -552,7 +552,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -579,7 +579,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -606,7 +606,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -633,7 +633,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -660,7 +660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -687,7 +687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -714,7 +714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
@@ -741,7 +741,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -768,7 +768,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -795,7 +795,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -822,7 +822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -849,7 +849,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -862,8 +862,8 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <f>_xlfn.FLOOR.MATH(AVERAGE(G2:G13)*10)</f>
-        <v>56</v>
+        <f>AVERAGE(G2:G13)*10</f>
+        <v>56.666666666666671</v>
       </c>
       <c r="I18" t="s">
         <v>12</v>
@@ -872,7 +872,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -889,7 +889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -906,13 +906,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="G21" t="s">
         <v>5</v>
       </c>
       <c r="H21">
         <f>SUM(H18:H20)</f>
-        <v>86</v>
+        <v>86.666666666666671</v>
       </c>
       <c r="I21" t="s">
         <v>14</v>
@@ -923,6 +923,11 @@
     <mergeCell ref="B18:D20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -932,9 +937,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -944,8 +954,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>